--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,6 +328,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed abdelbar hammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايمن محمد يسرى عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yusuf Ayman Mohammad Yosry Ateyya</x:t>
   </x:si>
   <x:si>
     <x:t>1210343</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Rehab Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
+    <x:t>1210226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد احمد محمد مهدى عصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210238</x:t>
   </x:si>
   <x:si>
@@ -247,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Mohammed Mohammed Elsoufy Abd Elhameed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم مصطفى عمر حبيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Mostafa Omar Habeb</x:t>
   </x:si>
   <x:si>
     <x:t>1210306</x:t>
@@ -461,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1108,7 +1126,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6917645486</x:v>
+        <x:v>45923.5873221412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1158,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6953730324</x:v>
+        <x:v>45914.6917645486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1190,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45914.6953730324</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.7110228356</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6874175926</x:v>
+        <x:v>45914.7110228356</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6867231829</x:v>
+        <x:v>45914.6874175926</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6855963773</x:v>
+        <x:v>45914.6867231829</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45914.6855963773</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6886613773</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45914.6886613773</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6914826736</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6914826736</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.6847547107</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1975,70 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45921.9784559028</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -229,6 +229,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Nabil Elsayed Eltoukhy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود على عباس حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210298</x:t>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1574,7 +1583,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6914826736</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6914826736</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1807,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1839,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1871,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1903,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.6847547107</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1935,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1967,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2022,7 +2031,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ محمد السيد هاشم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1210390</x:t>
@@ -488,7 +497,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1807,7 +1816,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.6847547107</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1976,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1999,7 +2008,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2031,7 +2040,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2063,7 +2072,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2080,6 +2089,38 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عشري بخيت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ashry Bekhet</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210044</x:t>
   </x:si>
   <x:si>
@@ -51,6 +60,15 @@
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
   </x:si>
   <x:si>
+    <x:t>4220112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انس علاء محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210206</x:t>
   </x:si>
   <x:si>
@@ -123,15 +141,6 @@
     <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
   </x:si>
   <x:si>
-    <x:t>1220246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210247</x:t>
   </x:si>
   <x:si>
@@ -177,6 +186,24 @@
     <x:t>AlaaEldin Hamed Mohamed Mahmoud Salem</x:t>
   </x:si>
   <x:si>
+    <x:t>4220139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد على الشريف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210275</x:t>
   </x:si>
   <x:si>
@@ -220,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ayman Elsayed Korany Eldeeb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ماهر محمد رفعت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210291</x:t>
@@ -497,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -797,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T40"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -888,7 +924,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45916.0158936343</x:v>
+        <x:v>45927.4147365741</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -920,7 +956,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.6878001505</x:v>
+        <x:v>45916.0158936343</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -952,7 +988,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.7007090278</x:v>
+        <x:v>45914.6878001505</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -984,7 +1020,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.6949074884</x:v>
+        <x:v>45927.4698664699</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1016,7 +1052,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.6896805903</x:v>
+        <x:v>45914.7007090278</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1048,7 +1084,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6892113426</x:v>
+        <x:v>45914.6949074884</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1080,7 +1116,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6995616088</x:v>
+        <x:v>45914.6896805903</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1112,7 +1148,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.7002888079</x:v>
+        <x:v>45914.6892113426</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1144,7 +1180,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45923.5873221412</x:v>
+        <x:v>45914.6995616088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1176,7 +1212,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6917645486</x:v>
+        <x:v>45914.7002888079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1208,7 +1244,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6953730324</x:v>
+        <x:v>45923.5873221412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1240,7 +1276,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45914.6917645486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1272,7 +1308,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.7110228356</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1304,7 +1340,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6874175926</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1336,7 +1372,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6867231829</x:v>
+        <x:v>45914.6874175926</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1368,7 +1404,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6855963773</x:v>
+        <x:v>45914.6867231829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1400,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45914.6855963773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1432,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45927.468065081</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1464,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1496,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6886613773</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1528,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1560,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1592,7 +1628,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45914.6886613773</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1624,7 +1660,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1656,7 +1692,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45927.4254059028</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1688,7 +1724,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1720,7 +1756,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1752,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1784,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6914826736</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1816,7 +1852,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1848,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1880,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1912,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6914826736</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1944,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1976,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2008,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2040,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2072,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6847547107</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2104,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2121,6 +2157,134 @@
       <x:c r="R40" s="2" t="s"/>
       <x:c r="S40" s="2" t="s"/>
       <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45914.6881958333</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45921.9784559028</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Basma Mohamed Abd El Hakeem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بلال اشرف سباق حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>belal ashraf sabbaq hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210003</x:t>
@@ -533,7 +542,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +842,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1116,7 +1125,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6896805903</x:v>
+        <x:v>45927.6756228009</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1148,7 +1157,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6892113426</x:v>
+        <x:v>45914.6896805903</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1180,7 +1189,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6995616088</x:v>
+        <x:v>45914.6892113426</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1221,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.7002888079</x:v>
+        <x:v>45914.6995616088</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1253,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45923.5873221412</x:v>
+        <x:v>45914.7002888079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1285,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.6917645486</x:v>
+        <x:v>45923.5873221412</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1317,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45914.6917645486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1349,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4167707176</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1381,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6874175926</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1413,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6867231829</x:v>
+        <x:v>45914.6874175926</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1445,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6855963773</x:v>
+        <x:v>45914.6867231829</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1477,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.468065081</x:v>
+        <x:v>45914.6855963773</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1509,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4714578704</x:v>
+        <x:v>45927.468065081</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1541,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1573,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1605,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1637,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6886613773</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1669,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45914.6886613773</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1701,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4254059028</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1733,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45927.4254059028</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1765,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1797,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1829,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1861,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1893,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1925,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1957,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.6914826736</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1989,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45914.6914826736</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2021,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2053,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2085,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2117,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2149,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.6847547107</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2181,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2213,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2245,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2268,7 +2277,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2285,6 +2294,38 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انس علاء محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210206</x:t>
@@ -542,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -842,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1029,7 +1020,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4698664699</x:v>
+        <x:v>45914.7007090278</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1061,7 +1052,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.7007090278</x:v>
+        <x:v>45914.6949074884</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1093,7 +1084,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6949074884</x:v>
+        <x:v>45927.6756228009</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1125,7 +1116,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.6756228009</x:v>
+        <x:v>45914.6896805903</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1157,7 +1148,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6896805903</x:v>
+        <x:v>45914.6892113426</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1189,7 +1180,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6892113426</x:v>
+        <x:v>45914.6995616088</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1221,7 +1212,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6995616088</x:v>
+        <x:v>45914.7002888079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1253,7 +1244,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.7002888079</x:v>
+        <x:v>45923.5873221412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1285,7 +1276,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45923.5873221412</x:v>
+        <x:v>45914.6917645486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1317,7 +1308,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6917645486</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1349,7 +1340,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1381,7 +1372,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4167707176</x:v>
+        <x:v>45914.6874175926</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1413,7 +1404,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6874175926</x:v>
+        <x:v>45914.6867231829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1445,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6867231829</x:v>
+        <x:v>45914.6855963773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1477,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6855963773</x:v>
+        <x:v>45927.468065081</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1509,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.468065081</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1541,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4714578704</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1573,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1605,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1637,7 +1628,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45914.6886613773</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1669,7 +1660,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.6886613773</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1701,7 +1692,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45927.4254059028</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1733,7 +1724,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4254059028</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1765,7 +1756,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1797,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1829,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1861,7 +1852,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1893,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1925,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1957,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.6914826736</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1989,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.6914826736</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2021,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2053,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2085,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2117,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6847547107</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2149,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2181,7 +2172,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2213,7 +2204,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2245,7 +2236,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2277,7 +2268,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6945675579</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2294,38 +2285,6 @@
       <x:c r="R44" s="2" t="s"/>
       <x:c r="S44" s="2" t="s"/>
       <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45914.6945675579</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Lecture-35888.xlsx
+++ b/downloaded_files/CMPS454_Lecture-35888.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>AlaaEldin Hamed Mohamed Mahmoud Salem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد على الشريف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
   </x:si>
   <x:si>
     <x:t>4220133</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1468,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.468065081</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4714578704</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45918.0915960648</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.0915960648</x:v>
+        <x:v>45914.6886613773</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6886613773</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1651,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45927.4254059028</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.4254059028</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45923.5894841435</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45923.5894841435</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.6914826736</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.6914826736</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6847547107</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2227,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6945675579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2253,38 +2244,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45914.6945675579</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
